--- a/Таблицы домашнего назначения/Бюджет.xlsx
+++ b/Таблицы домашнего назначения/Бюджет.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="96">
   <si>
     <t>Разница</t>
   </si>
@@ -269,13 +269,49 @@
     <t>до 7000р, мес</t>
   </si>
   <si>
-    <t>форс-мажор</t>
-  </si>
-  <si>
     <t>Прививка для кота</t>
   </si>
   <si>
     <t>Марина др</t>
+  </si>
+  <si>
+    <t>Таблетки форс маж</t>
+  </si>
+  <si>
+    <t>Марина доморй</t>
+  </si>
+  <si>
+    <t>форс-мажор</t>
+  </si>
+  <si>
+    <t>Тормоза</t>
+  </si>
+  <si>
+    <t>леша др</t>
+  </si>
+  <si>
+    <t>Гипермолл крупы</t>
+  </si>
+  <si>
+    <t>Андрей Проезд</t>
+  </si>
+  <si>
+    <t>кот, вторая вакцина</t>
+  </si>
+  <si>
+    <t>Кот корм</t>
+  </si>
+  <si>
+    <t>Квартира</t>
+  </si>
+  <si>
+    <t>до 7500р, мес</t>
+  </si>
+  <si>
+    <t>С мариной в кафе</t>
+  </si>
+  <si>
+    <t>На переезд отлож</t>
   </si>
 </sst>
 </file>
@@ -289,7 +325,7 @@
     <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -367,6 +403,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -560,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -659,7 +702,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -669,9 +711,14 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -680,7 +727,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="120">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1082,39 +1129,6 @@
       </font>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1165,6 +1179,560 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Open Sans"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Open Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Open Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Open Sans"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Open Sans"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Open Sans"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Open Sans"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3015,6 +3583,131 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1227131" cy="336823"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24616682" y="2571750"/>
+          <a:ext cx="1227131" cy="336823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1">
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Копилочка</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2339167" cy="336823"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24415296" y="4939393"/>
+          <a:ext cx="2339167" cy="336823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400">
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Дифференциация</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0">
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> валют</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400">
+            <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3183,20 +3876,124 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323975" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25593674" y="152400"/>
+          <a:ext cx="1323975" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Октябрь 2020</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323975" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35509199" y="152400"/>
+          <a:ext cx="1323975" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Ноябрь 2020</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Таблица13" displayName="Таблица13" ref="D7:H9" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Таблица13" displayName="Таблица13" ref="D7:H9" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="D7:H9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Депозиты " dataDxfId="84"/>
-    <tableColumn id="2" name="Этот месяц" dataDxfId="83"/>
-    <tableColumn id="3" name="Прошлый месяц" dataDxfId="82"/>
-    <tableColumn id="4" name="Изменение" dataDxfId="81">
+    <tableColumn id="1" name="Депозиты " dataDxfId="117"/>
+    <tableColumn id="2" name="Этот месяц" dataDxfId="116"/>
+    <tableColumn id="3" name="Прошлый месяц" dataDxfId="115"/>
+    <tableColumn id="4" name="Изменение" dataDxfId="114">
       <calculatedColumnFormula>Таблица13[[#This Row],[Этот месяц]]-Таблица13[[#This Row],[Прошлый месяц]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Столбец1" dataDxfId="80">
+    <tableColumn id="5" name="Столбец1" dataDxfId="113">
       <calculatedColumnFormula>IF(G$8&gt;0, "плюсуем=)", "в минусе=(")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3205,7 +4002,29 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Таблица24" displayName="Таблица24" ref="B4:E24" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Таблица20" displayName="Таблица20" ref="G4:K11" totalsRowShown="0" headerRowDxfId="59">
+  <autoFilter ref="G4:K11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Доход" dataDxfId="58"/>
+    <tableColumn id="2" name="Планируемый" dataDxfId="57">
+      <calculatedColumnFormula>130+178+15+150</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Фактический" dataDxfId="56">
+      <calculatedColumnFormula>130+178+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Разница" dataDxfId="55">
+      <calculatedColumnFormula>Таблица20[[#This Row],[Фактический]] - Таблица20[[#This Row],[Планируемый]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Столбец1" dataDxfId="54">
+      <calculatedColumnFormula>IF(Таблица20[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Таблица24" displayName="Таблица24" ref="B4:E24" totalsRowShown="0" headerRowDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="B4:E24"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Расходы"/>
@@ -3217,9 +4036,79 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Таблица2427" displayName="Таблица2427" ref="N4:Q25" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Таблица2427" displayName="Таблица2427" ref="N4:Q25" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
   <autoFilter ref="N4:Q25"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Расходы" dataDxfId="48"/>
+    <tableColumn id="2" name="Планируемые" dataDxfId="47"/>
+    <tableColumn id="3" name="Фактические" dataDxfId="46"/>
+    <tableColumn id="4" name="Разница" dataDxfId="45"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Таблица2020" displayName="Таблица2020" ref="S4:W11" totalsRowShown="0" headerRowDxfId="44">
+  <autoFilter ref="S4:W11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Доход" dataDxfId="43"/>
+    <tableColumn id="2" name="Планируемый" dataDxfId="42">
+      <calculatedColumnFormula>130+178+15+150</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Фактический" dataDxfId="41">
+      <calculatedColumnFormula>130+178+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Разница" dataDxfId="40">
+      <calculatedColumnFormula>Таблица2020[[#This Row],[Фактический]] - Таблица2020[[#This Row],[Планируемый]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Столбец1" dataDxfId="39">
+      <calculatedColumnFormula>IF(Таблица2020[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица24272" displayName="Таблица24272" ref="Z4:AC24" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
+  <autoFilter ref="Z4:AC24"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Расходы" dataDxfId="35"/>
+    <tableColumn id="2" name="Планируемые" dataDxfId="34"/>
+    <tableColumn id="3" name="Фактические" dataDxfId="33"/>
+    <tableColumn id="4" name="Разница" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица20203" displayName="Таблица20203" ref="AE4:AI11" totalsRowShown="0" headerRowDxfId="31">
+  <autoFilter ref="AE4:AI11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Доход" dataDxfId="30"/>
+    <tableColumn id="2" name="Планируемый" dataDxfId="29">
+      <calculatedColumnFormula>130+178+15+150</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Фактический" dataDxfId="28">
+      <calculatedColumnFormula>130+178+15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Разница" dataDxfId="27">
+      <calculatedColumnFormula>Таблица20203[[#This Row],[Фактический]] - Таблица20203[[#This Row],[Планируемый]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Столбец1" dataDxfId="26">
+      <calculatedColumnFormula>IF(Таблица20203[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица242724" displayName="Таблица242724" ref="AL4:AO24" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="AL4:AO24"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Расходы" dataDxfId="22"/>
     <tableColumn id="2" name="Планируемые" dataDxfId="21"/>
@@ -3230,9 +4119,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Таблица2020" displayName="Таблица2020" ref="S4:W11" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="S4:W11"/>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица202035" displayName="Таблица202035" ref="AQ4:AU11" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="AQ4:AU11"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Доход" dataDxfId="17"/>
     <tableColumn id="2" name="Планируемый" dataDxfId="16">
@@ -3242,19 +4131,19 @@
       <calculatedColumnFormula>130+178+15</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Разница" dataDxfId="14">
-      <calculatedColumnFormula>Таблица2020[[#This Row],[Фактический]] - Таблица2020[[#This Row],[Планируемый]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Таблица202035[[#This Row],[Фактический]] - Таблица202035[[#This Row],[Планируемый]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Столбец1" dataDxfId="13">
-      <calculatedColumnFormula>IF(Таблица2020[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Таблица202035[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица24272" displayName="Таблица24272" ref="Z4:AC24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="Z4:AC24"/>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица2427247" displayName="Таблица2427247" ref="AX4:BA24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="AX4:BA24"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Расходы" dataDxfId="9"/>
     <tableColumn id="2" name="Планируемые" dataDxfId="8"/>
@@ -3265,9 +4154,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица20203" displayName="Таблица20203" ref="AE4:AI11" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="AE4:AI11"/>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица2020358" displayName="Таблица2020358" ref="BC4:BG11" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="BC4:BG11"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Доход" dataDxfId="4"/>
     <tableColumn id="2" name="Планируемый" dataDxfId="3">
@@ -3277,10 +4166,10 @@
       <calculatedColumnFormula>130+178+15</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Разница" dataDxfId="1">
-      <calculatedColumnFormula>Таблица20203[[#This Row],[Фактический]] - Таблица20203[[#This Row],[Планируемый]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Таблица2020358[[#This Row],[Фактический]] - Таблица2020358[[#This Row],[Планируемый]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Столбец1" dataDxfId="0">
-      <calculatedColumnFormula>IF(Таблица20203[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Таблица2020358[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3288,18 +4177,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Таблица1315" displayName="Таблица1315" ref="M7:Q9" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Таблица1315" displayName="Таблица1315" ref="M7:Q9" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
   <autoFilter ref="M7:Q9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Депозиты " dataDxfId="77"/>
-    <tableColumn id="2" name="Этот месяц" dataDxfId="76"/>
-    <tableColumn id="3" name="Прошлый месяц" dataDxfId="75">
+    <tableColumn id="1" name="Депозиты " dataDxfId="110"/>
+    <tableColumn id="2" name="Этот месяц" dataDxfId="109"/>
+    <tableColumn id="3" name="Прошлый месяц" dataDxfId="108">
       <calculatedColumnFormula>E8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Изменение" dataDxfId="74">
+    <tableColumn id="4" name="Изменение" dataDxfId="107">
       <calculatedColumnFormula>Таблица1315[[#This Row],[Этот месяц]]-Таблица1315[[#This Row],[Прошлый месяц]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Столбец1" dataDxfId="73">
+    <tableColumn id="5" name="Столбец1" dataDxfId="106">
       <calculatedColumnFormula>IF(P$9&gt;0, "плюсуем=)", "в минусе=(")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3308,18 +4197,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Таблица131516" displayName="Таблица131516" ref="W7:AA9" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Таблица131516" displayName="Таблица131516" ref="W7:AA9" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
   <autoFilter ref="W7:AA9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Депозиты " dataDxfId="70"/>
-    <tableColumn id="2" name="Этот месяц" dataDxfId="69"/>
-    <tableColumn id="3" name="Прошлый месяц" dataDxfId="68">
+    <tableColumn id="1" name="Депозиты " dataDxfId="103"/>
+    <tableColumn id="2" name="Этот месяц" dataDxfId="102"/>
+    <tableColumn id="3" name="Прошлый месяц" dataDxfId="101">
       <calculatedColumnFormula>N8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Изменение" dataDxfId="67">
+    <tableColumn id="4" name="Изменение" dataDxfId="100">
       <calculatedColumnFormula>Таблица131516[[#This Row],[Этот месяц]]-Таблица131516[[#This Row],[Прошлый месяц]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Столбец1" dataDxfId="66">
+    <tableColumn id="5" name="Столбец1" dataDxfId="99">
       <calculatedColumnFormula>IF(Z$9&gt;0, "плюсуем=)", "в минусе=(")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3328,64 +4217,64 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Таблица13151617" displayName="Таблица13151617" ref="D34:H36" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Таблица13151617" displayName="Таблица13151617" ref="D34:H36" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="D34:H36"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Депозиты " dataDxfId="63"/>
-    <tableColumn id="2" name="Этот месяц" dataDxfId="62"/>
-    <tableColumn id="3" name="Прошлый месяц" dataDxfId="61">
+    <tableColumn id="1" name="Депозиты " dataDxfId="96"/>
+    <tableColumn id="2" name="Этот месяц" dataDxfId="95"/>
+    <tableColumn id="3" name="Прошлый месяц" dataDxfId="94">
       <calculatedColumnFormula>X8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Изменение" dataDxfId="60">
+    <tableColumn id="4" name="Изменение" dataDxfId="93">
       <calculatedColumnFormula>Таблица13151617[[#This Row],[Этот месяц]]-Таблица13151617[[#This Row],[Прошлый месяц]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Столбец1" dataDxfId="59"/>
+    <tableColumn id="5" name="Столбец1" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Таблица1315161718" displayName="Таблица1315161718" ref="M34:Q36" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Таблица1315161718" displayName="Таблица1315161718" ref="M34:Q36" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="M34:Q36"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Депозиты " dataDxfId="56"/>
-    <tableColumn id="2" name="Этот месяц" dataDxfId="55"/>
-    <tableColumn id="3" name="Прошлый месяц" dataDxfId="54">
+    <tableColumn id="1" name="Депозиты " dataDxfId="89"/>
+    <tableColumn id="2" name="Этот месяц" dataDxfId="88"/>
+    <tableColumn id="3" name="Прошлый месяц" dataDxfId="87">
       <calculatedColumnFormula>E35</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Изменение" dataDxfId="53">
+    <tableColumn id="4" name="Изменение" dataDxfId="86">
       <calculatedColumnFormula>Таблица1315161718[[#This Row],[Этот месяц]]-Таблица1315161718[[#This Row],[Прошлый месяц]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Столбец1" dataDxfId="52"/>
+    <tableColumn id="5" name="Столбец1" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Таблица131516171819" displayName="Таблица131516171819" ref="W34:AA36" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Таблица131516171819" displayName="Таблица131516171819" ref="W34:AA36" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="W34:AA36"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Депозиты " dataDxfId="49"/>
-    <tableColumn id="2" name="Этот месяц" dataDxfId="48"/>
-    <tableColumn id="3" name="Прошлый месяц" dataDxfId="47">
+    <tableColumn id="1" name="Депозиты " dataDxfId="82"/>
+    <tableColumn id="2" name="Этот месяц" dataDxfId="81"/>
+    <tableColumn id="3" name="Прошлый месяц" dataDxfId="80">
       <calculatedColumnFormula>N35</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Изменение" dataDxfId="46">
+    <tableColumn id="4" name="Изменение" dataDxfId="79">
       <calculatedColumnFormula>Таблица131516171819[[#This Row],[Этот месяц]]-Таблица131516171819[[#This Row],[Прошлый месяц]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Столбец1" dataDxfId="45"/>
+    <tableColumn id="5" name="Столбец1" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Таблица21" displayName="Таблица21" ref="D14:E17" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Таблица21" displayName="Таблица21" ref="D14:E17" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
   <autoFilter ref="D14:E17"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="курс валют" dataDxfId="40"/>
+    <tableColumn id="1" name="курс валют" dataDxfId="73"/>
     <tableColumn id="2" name="Значение"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3393,33 +4282,31 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Таблица22" displayName="Таблица22" ref="G14:I19" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Таблица22" displayName="Таблица22" ref="G14:I19" totalsRowShown="0" headerRowDxfId="72" headerRowBorderDxfId="71" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="G14:I19"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="валюта" dataDxfId="35"/>
+    <tableColumn id="1" name="валюта" dataDxfId="68"/>
     <tableColumn id="2" name="кол-во"/>
-    <tableColumn id="3" name="по курсу" dataDxfId="34"/>
+    <tableColumn id="3" name="по курсу" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Таблица20" displayName="Таблица20" ref="G4:K11" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="G4:K11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица1315166" displayName="Таблица1315166" ref="AG7:AK9" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+  <autoFilter ref="AG7:AK9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Доход" dataDxfId="32"/>
-    <tableColumn id="2" name="Планируемый" dataDxfId="31">
-      <calculatedColumnFormula>130+178+15+150</calculatedColumnFormula>
+    <tableColumn id="1" name="Депозиты " dataDxfId="64"/>
+    <tableColumn id="2" name="Этот месяц" dataDxfId="63"/>
+    <tableColumn id="3" name="Прошлый месяц" dataDxfId="62">
+      <calculatedColumnFormula>X8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Фактический" dataDxfId="30">
-      <calculatedColumnFormula>130+178+15</calculatedColumnFormula>
+    <tableColumn id="4" name="Изменение" dataDxfId="61">
+      <calculatedColumnFormula>Таблица1315166[[#This Row],[Этот месяц]]-Таблица1315166[[#This Row],[Прошлый месяц]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Разница" dataDxfId="29">
-      <calculatedColumnFormula>Таблица20[[#This Row],[Фактический]] - Таблица20[[#This Row],[Планируемый]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="Столбец1" dataDxfId="28">
-      <calculatedColumnFormula>IF(Таблица20[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</calculatedColumnFormula>
+    <tableColumn id="5" name="Столбец1" dataDxfId="60">
+      <calculatedColumnFormula>IF(AJ$9&gt;0, "плюсуем=)", "в минусе=(")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3710,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:AC53"/>
+  <dimension ref="A5:AM53"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="AA4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3740,9 +4627,16 @@
     <col min="27" max="27" width="15.5703125" customWidth="1"/>
     <col min="28" max="28" width="18.5703125" customWidth="1"/>
     <col min="29" max="29" width="15.42578125" customWidth="1"/>
+    <col min="33" max="33" width="18.140625" customWidth="1"/>
+    <col min="34" max="34" width="16.85546875" customWidth="1"/>
+    <col min="35" max="35" width="16.5703125" customWidth="1"/>
+    <col min="36" max="36" width="17.42578125" customWidth="1"/>
+    <col min="37" max="37" width="17.5703125" customWidth="1"/>
+    <col min="38" max="38" width="18.5703125" customWidth="1"/>
+    <col min="39" max="39" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3763,7 +4657,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="22.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:39" ht="22.5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3793,8 +4687,17 @@
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
       <c r="AC6" s="42"/>
-    </row>
-    <row r="7" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="42"/>
+    </row>
+    <row r="7" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3848,8 +4751,25 @@
       </c>
       <c r="AB7" s="26"/>
       <c r="AC7" s="27"/>
-    </row>
-    <row r="8" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="27"/>
+    </row>
+    <row r="8" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3894,7 +4814,9 @@
       <c r="W8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="21"/>
+      <c r="X8" s="21">
+        <v>0</v>
+      </c>
       <c r="Y8" s="21">
         <f>N8</f>
         <v>1146.0999999999999</v>
@@ -3909,8 +4831,28 @@
       </c>
       <c r="AB8" s="26"/>
       <c r="AC8" s="27"/>
-    </row>
-    <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AG8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="21">
+        <f>X8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="21">
+        <f>Таблица1315166[[#This Row],[Этот месяц]]-Таблица1315166[[#This Row],[Прошлый месяц]]</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="23" t="str">
+        <f>IF(AJ$8&gt;0, "плюсуем=)", "в минусе=(")</f>
+        <v>в минусе=(</v>
+      </c>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="27"/>
+    </row>
+    <row r="9" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3955,23 +4897,45 @@
       <c r="W9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="X9" s="21"/>
+      <c r="X9" s="21">
+        <v>1699.17</v>
+      </c>
       <c r="Y9" s="21">
         <f>N9</f>
         <v>1681.61</v>
       </c>
       <c r="Z9" s="21">
         <f>Таблица131516[[#This Row],[Этот месяц]]-Таблица131516[[#This Row],[Прошлый месяц]]</f>
-        <v>-1681.61</v>
+        <v>17.560000000000173</v>
       </c>
       <c r="AA9" s="23" t="str">
         <f>IF(Z$9&gt;0, "плюсуем=)", "в минусе=(")</f>
-        <v>в минусе=(</v>
+        <v>плюсуем=)</v>
       </c>
       <c r="AB9" s="26"/>
       <c r="AC9" s="27"/>
-    </row>
-    <row r="10" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="21">
+        <f>X9</f>
+        <v>1699.17</v>
+      </c>
+      <c r="AJ9" s="21">
+        <f>Таблица1315166[[#This Row],[Этот месяц]]-Таблица1315166[[#This Row],[Прошлый месяц]]</f>
+        <v>-1699.17</v>
+      </c>
+      <c r="AK9" s="23" t="str">
+        <f>IF(AJ$9&gt;0, "плюсуем=)", "в минусе=(")</f>
+        <v>в минусе=(</v>
+      </c>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="27"/>
+    </row>
+    <row r="10" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3995,8 +4959,15 @@
       <c r="AA10" s="26"/>
       <c r="AB10" s="26"/>
       <c r="AC10" s="27"/>
-    </row>
-    <row r="11" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="27"/>
+    </row>
+    <row r="11" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4017,11 +4988,26 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
+      <c r="AA11" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB11" s="98">
+        <v>350</v>
+      </c>
       <c r="AC11" s="27"/>
-    </row>
-    <row r="12" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL11" s="98">
+        <v>350</v>
+      </c>
+      <c r="AM11" s="27"/>
+    </row>
+    <row r="12" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4045,8 +5031,15 @@
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
       <c r="AC12" s="9"/>
-    </row>
-    <row r="13" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="9"/>
+    </row>
+    <row r="13" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4070,8 +5063,15 @@
       <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="9"/>
-    </row>
-    <row r="14" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="9"/>
+    </row>
+    <row r="14" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4094,10 +5094,10 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="97" t="s">
+      <c r="M14" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="98"/>
+      <c r="N14" s="102"/>
       <c r="O14" s="21"/>
       <c r="P14" s="10" t="s">
         <v>21</v>
@@ -4111,10 +5111,10 @@
       <c r="S14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="W14" s="97" t="s">
+      <c r="W14" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="98"/>
+      <c r="X14" s="102"/>
       <c r="Y14" s="21"/>
       <c r="Z14" s="10" t="s">
         <v>21</v>
@@ -4128,8 +5128,25 @@
       <c r="AC14" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG14" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM14" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4177,22 +5194,47 @@
       <c r="W15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X15" s="12"/>
+      <c r="X15" s="12">
+        <v>3.0539999999999998</v>
+      </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA15" s="12"/>
+      <c r="AA15" s="12">
+        <v>415</v>
+      </c>
       <c r="AB15" s="10">
         <f>AA15*X15</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="15">
-        <f>AA15-R15</f>
-        <v>-938.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+        <v>1267.4099999999999</v>
+      </c>
+      <c r="AC15" s="96">
+        <f>AB15-R15</f>
+        <v>328.70999999999981</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="10">
+        <f>AK15*AH15</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="96">
+        <f>AL15-AB15</f>
+        <v>-1267.4099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4238,22 +5280,47 @@
       <c r="W16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="13"/>
+      <c r="X16" s="13">
+        <v>2.601</v>
+      </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AA16" s="13"/>
+      <c r="AA16" s="13">
+        <v>1505</v>
+      </c>
       <c r="AB16" s="10">
         <f>AA16*X16</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="16">
-        <f>AA16-R16</f>
-        <v>-2692.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+        <v>3914.5050000000001</v>
+      </c>
+      <c r="AC16" s="96">
+        <f t="shared" ref="AC16:AC18" si="0">AB16-R16</f>
+        <v>1222.105</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="10">
+        <f>AK16*AH16</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="96">
+        <f t="shared" ref="AM16:AM18" si="1">AL16-AB16</f>
+        <v>-3914.5050000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4299,22 +5366,47 @@
       <c r="W17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="X17" s="14"/>
+      <c r="X17" s="14">
+        <v>3.3650000000000002</v>
+      </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA17" s="14"/>
+      <c r="AA17" s="14">
+        <v>2500</v>
+      </c>
       <c r="AB17" s="10">
         <f>AA17/100*X17</f>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="17">
-        <f>AA17-R17</f>
-        <v>-85.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+        <v>84.125</v>
+      </c>
+      <c r="AC17" s="96">
+        <f t="shared" si="0"/>
+        <v>-1.375</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="10">
+        <f>AK17/100*AH17</f>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="96">
+        <f t="shared" si="1"/>
+        <v>-84.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4355,17 +5447,36 @@
       <c r="Z18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AA18" s="10"/>
+      <c r="AA18" s="10">
+        <v>50</v>
+      </c>
       <c r="AB18" s="10">
         <f>AA18</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="10">
-        <f>AA18-R18</f>
-        <v>-350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="AC18" s="96">
+        <f t="shared" si="0"/>
+        <v>-300</v>
+      </c>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="10">
+        <f>AK18</f>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="96">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4405,14 +5516,29 @@
       <c r="AA19" s="10"/>
       <c r="AB19" s="10">
         <f>SUM(AB15:AB18)</f>
-        <v>0</v>
+        <v>5316.04</v>
       </c>
       <c r="AC19" s="10">
         <f>AB19-S19</f>
-        <v>-336.85000000000036</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+        <v>4979.1899999999996</v>
+      </c>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10">
+        <f>SUM(AL15:AL18)</f>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="10">
+        <f>AL19-AC19</f>
+        <v>-4979.1899999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4437,8 +5563,15 @@
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="9"/>
-    </row>
-    <row r="21" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="9"/>
+    </row>
+    <row r="21" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="D21" s="19"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -4459,8 +5592,15 @@
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
       <c r="AC21" s="27"/>
-    </row>
-    <row r="22" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="27"/>
+    </row>
+    <row r="22" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="D22" s="19"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -4481,8 +5621,15 @@
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="27"/>
-    </row>
-    <row r="23" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="27"/>
+    </row>
+    <row r="23" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="D23" s="19" t="s">
         <v>25</v>
       </c>
@@ -4500,7 +5647,7 @@
       <c r="M23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="89">
+      <c r="N23" s="88">
         <f>R15/(R$19+N$8+N$9)*100</f>
         <v>13.615575742895228</v>
       </c>
@@ -4517,13 +5664,13 @@
       <c r="W23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="X23" s="89" t="e">
+      <c r="X23" s="88">
         <f>AB15/(AB$19+X$8+X$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y23" s="21" t="e">
+        <v>18.066600999827514</v>
+      </c>
+      <c r="Y23" s="21" t="str">
         <f>IF(X23&gt;25,"умен.долю","увел.долю")</f>
-        <v>#DIV/0!</v>
+        <v>увел.долю</v>
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="26"/>
@@ -4531,17 +5678,34 @@
       <c r="AC23" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+      <c r="AG23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH23" s="88" t="e">
+        <f>AL15/(AL$19+AH$8+AH$9)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI23" s="21" t="e">
+        <f>IF(AH23&gt;25,"умен.долю","увел.долю")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="D24" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" ref="E24:E25" si="0">I16/(I$19+$E$8+$E$9)*100</f>
+        <f t="shared" ref="E24:E25" si="2">I16/(I$19+$E$8+$E$9)*100</f>
         <v>38.917308017266535</v>
       </c>
       <c r="F24" s="21" t="str">
-        <f t="shared" ref="F24:F26" si="1">IF(E24&gt;25,"умен.долю","увел.долю")</f>
+        <f t="shared" ref="F24:F26" si="3">IF(E24&gt;25,"умен.долю","увел.долю")</f>
         <v>умен.долю</v>
       </c>
       <c r="G24" s="21"/>
@@ -4555,12 +5719,12 @@
       <c r="M24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="89">
-        <f t="shared" ref="N24:N25" si="2">R16/(R$19+N$8+N$9)*100</f>
+      <c r="N24" s="88">
+        <f t="shared" ref="N24:N25" si="4">R16/(R$19+N$8+N$9)*100</f>
         <v>39.052494013178986</v>
       </c>
       <c r="O24" s="21" t="str">
-        <f t="shared" ref="O24:O26" si="3">IF(N24&gt;25,"умен.долю","увел.долю")</f>
+        <f t="shared" ref="O24:O26" si="5">IF(N24&gt;25,"умен.долю","увел.долю")</f>
         <v>умен.долю</v>
       </c>
       <c r="P24" s="21"/>
@@ -4578,13 +5742,13 @@
       <c r="W24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="X24" s="89" t="e">
+      <c r="X24" s="88">
         <f>AB16/(AB$19+X$8+X$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="21" t="e">
-        <f t="shared" ref="Y24:Y26" si="4">IF(X24&gt;25,"умен.долю","увел.долю")</f>
-        <v>#DIV/0!</v>
+        <v>55.800254019480533</v>
+      </c>
+      <c r="Y24" s="21" t="str">
+        <f t="shared" ref="Y24:Y26" si="6">IF(X24&gt;25,"умен.долю","увел.долю")</f>
+        <v>умен.долю</v>
       </c>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21" t="s">
@@ -4592,23 +5756,46 @@
       </c>
       <c r="AB24" s="78">
         <f>AB19+X9+X8</f>
-        <v>0</v>
+        <v>7015.21</v>
       </c>
       <c r="AC24" s="77">
         <f>AB24-R24</f>
-        <v>-6894.3099999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="21" x14ac:dyDescent="0.4">
+        <v>120.90000000000055</v>
+      </c>
+      <c r="AG24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH24" s="88" t="e">
+        <f>AL16/(AL$19+AH$8+AH$9)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI24" s="21" t="e">
+        <f t="shared" ref="AI24:AI26" si="7">IF(AH24&gt;25,"умен.долю","увел.долю")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL24" s="78">
+        <f>AL19+AH9+AH8</f>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="77">
+        <f>AL24-AB24</f>
+        <v>-7015.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="21" x14ac:dyDescent="0.4">
       <c r="D25" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2788607769943314</v>
       </c>
       <c r="F25" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>увел.долю</v>
       </c>
       <c r="G25" s="21"/>
@@ -4617,12 +5804,12 @@
       <c r="M25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="89">
-        <f t="shared" si="2"/>
+      <c r="N25" s="88">
+        <f t="shared" si="4"/>
         <v>1.2401531117689804</v>
       </c>
       <c r="O25" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>увел.долю</v>
       </c>
       <c r="P25" s="21"/>
@@ -4635,23 +5822,41 @@
       <c r="W25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="X25" s="89" t="e">
+      <c r="X25" s="88">
         <f>AB17/(AB$19+X$8+X$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="21" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.1991800673108859</v>
+      </c>
+      <c r="Y25" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>увел.долю</v>
       </c>
       <c r="Z25" s="21"/>
       <c r="AA25" s="26"/>
       <c r="AB25" s="26"/>
       <c r="AC25" s="9" t="str">
         <f>IF(AC24&gt;0, "в плюсе!", "В минусе=(")</f>
+        <v>в плюсе!</v>
+      </c>
+      <c r="AG25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH25" s="88" t="e">
+        <f>AL17/(AL$19+AH$8+AH$9)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI25" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="9" t="str">
+        <f>IF(AM24&gt;0, "в плюсе!", "В минусе=(")</f>
         <v>В минусе=(</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="22.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:39" ht="22.5" x14ac:dyDescent="0.4">
       <c r="D26" s="28" t="s">
         <v>28</v>
       </c>
@@ -4660,7 +5865,7 @@
         <v>46.545155690738426</v>
       </c>
       <c r="F26" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>умен.долю</v>
       </c>
       <c r="G26" s="29">
@@ -4672,15 +5877,15 @@
       <c r="M26" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N26" s="89">
+      <c r="N26" s="88">
         <f>(R18+N$8+N$9)/(R$19+N$8+N$9)*100</f>
         <v>46.091777132156807</v>
       </c>
       <c r="O26" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>умен.долю</v>
       </c>
-      <c r="P26" s="90">
+      <c r="P26" s="89">
         <f>SUM(N23:N26)</f>
         <v>100</v>
       </c>
@@ -4694,25 +5899,48 @@
       <c r="W26" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="X26" s="21" t="e">
+      <c r="X26" s="88">
         <f>(AB18+X$8+X$9)/(AB$19+X$8+X$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" s="21" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="29" t="e">
+        <v>24.933964913381068</v>
+      </c>
+      <c r="Y26" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>увел.долю</v>
+      </c>
+      <c r="Z26" s="29">
         <f>SUM(X23:X26)</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="30"/>
       <c r="AB26" s="80" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="AC26" s="81">
-        <f>((7000-AB24)/AC24)</f>
-        <v>-1.0153300330272357</v>
+        <f>((7500-AB24)/AC24)</f>
+        <v>4.0098428453266983</v>
+      </c>
+      <c r="AG26" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH26" s="88" t="e">
+        <f>(AL18+AH$8+AH$9)/(AL$19+AH$8+AH$9)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI26" s="21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ26" s="29" t="e">
+        <f>SUM(AH23:AH26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM26" s="81">
+        <f>((7500-AL24)/AM24)</f>
+        <v>-1.069105557780879</v>
       </c>
     </row>
     <row r="33" spans="4:29" ht="22.5" x14ac:dyDescent="0.4">
@@ -4860,11 +6088,11 @@
       <c r="E36" s="21"/>
       <c r="F36" s="21">
         <f>X9</f>
-        <v>0</v>
+        <v>1699.17</v>
       </c>
       <c r="G36" s="21">
         <f>Таблица13151617[[#This Row],[Этот месяц]]-Таблица13151617[[#This Row],[Прошлый месяц]]</f>
-        <v>0</v>
+        <v>-1699.17</v>
       </c>
       <c r="H36" s="23" t="str">
         <f>IF(G$36&gt;0, "плюсуем=)", "в минусе=(")</f>
@@ -5002,10 +6230,10 @@
       <c r="AC40" s="9"/>
     </row>
     <row r="41" spans="4:29" ht="21" x14ac:dyDescent="0.4">
-      <c r="D41" s="97" t="s">
+      <c r="D41" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="98"/>
+      <c r="E41" s="102"/>
       <c r="F41" s="21"/>
       <c r="G41" s="10" t="s">
         <v>21</v>
@@ -5019,10 +6247,10 @@
       <c r="J41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M41" s="97" t="s">
+      <c r="M41" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="98"/>
+      <c r="N41" s="102"/>
       <c r="O41" s="21"/>
       <c r="P41" s="10" t="s">
         <v>21</v>
@@ -5036,10 +6264,10 @@
       <c r="S41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="W41" s="97" t="s">
+      <c r="W41" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="X41" s="98"/>
+      <c r="X41" s="102"/>
       <c r="Y41" s="21"/>
       <c r="Z41" s="10" t="s">
         <v>21</v>
@@ -5070,7 +6298,7 @@
       </c>
       <c r="J42" s="15">
         <f>H42-AA15</f>
-        <v>0</v>
+        <v>-415</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>19</v>
@@ -5123,7 +6351,7 @@
       </c>
       <c r="J43" s="16">
         <f>H43-AA16</f>
-        <v>0</v>
+        <v>-1505</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>17</v>
@@ -5176,7 +6404,7 @@
       </c>
       <c r="J44" s="17">
         <f>H44-AA17</f>
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>18</v>
@@ -5227,7 +6455,7 @@
       </c>
       <c r="J45" s="10">
         <f>H45-AA18</f>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="M45" s="19"/>
       <c r="N45" s="21"/>
@@ -5434,11 +6662,11 @@
         <v>26</v>
       </c>
       <c r="E51" s="21" t="e">
-        <f t="shared" ref="E51:E52" si="5">I43/(I$46+E$35+E$36)*100</f>
+        <f t="shared" ref="E51:E52" si="8">I43/(I$46+E$35+E$36)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F51" s="21" t="e">
-        <f t="shared" ref="F51:F53" si="6">IF(E51&gt;25,"умен.долю","увел.долю")</f>
+        <f t="shared" ref="F51:F53" si="9">IF(E51&gt;25,"умен.долю","увел.долю")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G51" s="21"/>
@@ -5451,17 +6679,17 @@
       </c>
       <c r="J51" s="77">
         <f>I51-AB24</f>
-        <v>0</v>
+        <v>-7015.21</v>
       </c>
       <c r="M51" s="19" t="s">
         <v>26</v>
       </c>
       <c r="N51" s="21" t="e">
-        <f t="shared" ref="N51:N52" si="7">R43/(R$46+N$35+N$36)*100</f>
+        <f t="shared" ref="N51:N52" si="10">R43/(R$46+N$35+N$36)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O51" s="21" t="e">
-        <f t="shared" ref="O51:O53" si="8">IF(N51&gt;25,"умен.долю","увел.долю")</f>
+        <f t="shared" ref="O51:O53" si="11">IF(N51&gt;25,"умен.долю","увел.долю")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P51" s="21"/>
@@ -5480,11 +6708,11 @@
         <v>26</v>
       </c>
       <c r="X51" s="21" t="e">
-        <f t="shared" ref="X51:X52" si="9">AB43/(AB$46+X$35+X$36)*100</f>
+        <f t="shared" ref="X51:X52" si="12">AB43/(AB$46+X$35+X$36)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y51" s="21" t="e">
-        <f t="shared" ref="Y51:Y53" si="10">IF(X51&gt;25,"умен.долю","увел.долю")</f>
+        <f t="shared" ref="Y51:Y53" si="13">IF(X51&gt;25,"умен.долю","увел.долю")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z51" s="21"/>
@@ -5505,11 +6733,11 @@
         <v>27</v>
       </c>
       <c r="E52" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F52" s="21" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G52" s="21"/>
@@ -5523,11 +6751,11 @@
         <v>27</v>
       </c>
       <c r="N52" s="21" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="21" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P52" s="21"/>
@@ -5541,11 +6769,11 @@
         <v>27</v>
       </c>
       <c r="X52" s="21" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y52" s="21" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z52" s="21"/>
@@ -5565,7 +6793,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="21" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G53" s="29" t="e">
@@ -5576,9 +6804,9 @@
       <c r="I53" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="J53" s="81" t="e">
+      <c r="J53" s="81">
         <f>((7000-I51)/J51)</f>
-        <v>#DIV/0!</v>
+        <v>-0.99783185392882034</v>
       </c>
       <c r="M53" s="28" t="s">
         <v>28</v>
@@ -5588,7 +6816,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="21" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P53" s="29" t="e">
@@ -5611,7 +6839,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y53" s="21" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z53" s="29" t="e">
@@ -5628,7 +6856,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AG14:AH14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="W14:X14"/>
     <mergeCell ref="D41:E41"/>
@@ -5638,7 +6867,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -5647,16 +6876,17 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AI98"/>
+  <dimension ref="B4:BG98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U5" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView tabSelected="1" topLeftCell="AT7" workbookViewId="0">
+      <selection activeCell="AY17" sqref="AY17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5681,9 +6911,25 @@
     <col min="28" max="28" width="12.42578125" customWidth="1"/>
     <col min="29" max="29" width="11.5703125" customWidth="1"/>
     <col min="31" max="31" width="22" customWidth="1"/>
+    <col min="38" max="38" width="19.140625" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" customWidth="1"/>
+    <col min="40" max="40" width="15.140625" customWidth="1"/>
+    <col min="41" max="41" width="12.85546875" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" customWidth="1"/>
+    <col min="44" max="44" width="15" customWidth="1"/>
+    <col min="45" max="45" width="14.7109375" customWidth="1"/>
+    <col min="46" max="46" width="11.28515625" customWidth="1"/>
+    <col min="50" max="50" width="20.140625" customWidth="1"/>
+    <col min="51" max="51" width="19.5703125" customWidth="1"/>
+    <col min="52" max="52" width="16.28515625" customWidth="1"/>
+    <col min="53" max="53" width="12" customWidth="1"/>
+    <col min="55" max="55" width="24.140625" customWidth="1"/>
+    <col min="56" max="56" width="17.42578125" customWidth="1"/>
+    <col min="57" max="57" width="15.42578125" customWidth="1"/>
+    <col min="58" max="58" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="59" t="s">
         <v>29</v>
       </c>
@@ -5768,8 +7014,64 @@
       <c r="AI4" s="79" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL4" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN4" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO4" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR4" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS4" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX4" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ4" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA4" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="33"/>
+      <c r="BC4" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD4" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE4" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="59"/>
       <c r="C5" s="43" t="s">
         <v>43</v>
@@ -5808,11 +7110,11 @@
         <v>150</v>
       </c>
       <c r="U5" s="26">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="V5" s="27">
         <f>Таблица2020[[#This Row],[Фактический]] - Таблица2020[[#This Row],[Планируемый]]</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W5" s="57" t="str">
         <f>IF(Таблица2020[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
@@ -5832,18 +7134,66 @@
         <v>150</v>
       </c>
       <c r="AG5" s="26">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AH5" s="27">
         <f>Таблица20203[[#This Row],[Фактический]] - Таблица20203[[#This Row],[Планируемый]]</f>
-        <v>-150</v>
+        <v>5</v>
       </c>
       <c r="AI5" s="57" t="str">
         <f>IF(Таблица20203[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR5" s="26">
+        <v>150</v>
+      </c>
+      <c r="AS5" s="26">
+        <v>156</v>
+      </c>
+      <c r="AT5" s="27">
+        <f>Таблица202035[[#This Row],[Фактический]] - Таблица202035[[#This Row],[Планируемый]]</f>
+        <v>6</v>
+      </c>
+      <c r="AU5" s="57" t="str">
+        <f>IF(Таблица202035[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="63"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD5" s="26">
+        <v>150</v>
+      </c>
+      <c r="BE5" s="26">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="27">
+        <f>Таблица2020358[[#This Row],[Фактический]] - Таблица2020358[[#This Row],[Планируемый]]</f>
+        <v>-150</v>
+      </c>
+      <c r="BG5" s="57" t="str">
+        <f>IF(Таблица2020358[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Нет=(</v>
       </c>
     </row>
-    <row r="6" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="59" t="s">
         <v>37</v>
       </c>
@@ -5875,7 +7225,7 @@
         <f>IF(Таблица20[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="87" t="s">
         <v>37</v>
       </c>
       <c r="O6" s="43">
@@ -5906,18 +7256,18 @@
         <f>IF(Таблица2020[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-      <c r="Z6" s="93" t="s">
+      <c r="Z6" s="87" t="s">
         <v>37</v>
       </c>
       <c r="AA6" s="43">
         <v>35</v>
       </c>
       <c r="AB6" s="43">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC6" s="58">
         <f>Таблица24272[[#This Row],[Планируемые]]-Таблица24272[[#This Row],[Фактические]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="26"/>
       <c r="AE6" s="71" t="s">
@@ -5927,18 +7277,80 @@
         <v>300</v>
       </c>
       <c r="AG6" s="69">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="AH6" s="70">
         <f>Таблица20203[[#This Row],[Фактический]] - Таблица20203[[#This Row],[Планируемый]]</f>
-        <v>-300</v>
+        <v>5</v>
       </c>
       <c r="AI6" s="57" t="str">
         <f>IF(Таблица20203[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+      <c r="AL6" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM6" s="43">
+        <v>30</v>
+      </c>
+      <c r="AN6" s="43">
+        <v>25</v>
+      </c>
+      <c r="AO6" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>5</v>
+      </c>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR6" s="69">
+        <v>190</v>
+      </c>
+      <c r="AS6" s="69">
+        <v>199.24</v>
+      </c>
+      <c r="AT6" s="70">
+        <f>Таблица202035[[#This Row],[Фактический]] - Таблица202035[[#This Row],[Планируемый]]</f>
+        <v>9.2400000000000091</v>
+      </c>
+      <c r="AU6" s="57" t="str">
+        <f>IF(Таблица202035[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+      <c r="AX6" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY6" s="43">
+        <v>40</v>
+      </c>
+      <c r="AZ6" s="43">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>40</v>
+      </c>
+      <c r="BB6" s="26"/>
+      <c r="BC6" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD6" s="69">
+        <v>300</v>
+      </c>
+      <c r="BE6" s="69">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="70">
+        <f>Таблица2020358[[#This Row],[Фактический]] - Таблица2020358[[#This Row],[Планируемый]]</f>
+        <v>-300</v>
+      </c>
+      <c r="BG6" s="57" t="str">
+        <f>IF(Таблица2020358[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Нет=(</v>
       </c>
     </row>
-    <row r="7" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="60" t="s">
         <v>38</v>
       </c>
@@ -5970,7 +7382,7 @@
         <f>IF(Таблица20[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O7" s="58">
@@ -5991,49 +7403,111 @@
         <v>50</v>
       </c>
       <c r="U7" s="26">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="V7" s="27">
         <f>Таблица2020[[#This Row],[Фактический]] - Таблица2020[[#This Row],[Планируемый]]</f>
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="W7" s="57" t="str">
         <f>IF(Таблица2020[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Нет=(</v>
       </c>
-      <c r="Z7" s="83" t="s">
+      <c r="Z7" s="86" t="s">
         <v>38</v>
       </c>
       <c r="AA7" s="58">
         <v>20</v>
       </c>
       <c r="AB7" s="58">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AC7" s="58">
         <f>Таблица24272[[#This Row],[Планируемые]]-Таблица24272[[#This Row],[Фактические]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD7" s="26"/>
       <c r="AE7" s="58" t="s">
         <v>59</v>
       </c>
       <c r="AF7" s="26">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG7" s="26">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AH7" s="27">
         <f>Таблица20203[[#This Row],[Фактический]] - Таблица20203[[#This Row],[Планируемый]]</f>
-        <v>-50</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="57" t="str">
         <f>IF(Таблица20203[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
-        <v>Нет=(</v>
-      </c>
-    </row>
-    <row r="8" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+        <v>Есть!</v>
+      </c>
+      <c r="AL7" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM7" s="58">
+        <v>20</v>
+      </c>
+      <c r="AN7" s="58">
+        <v>11.5</v>
+      </c>
+      <c r="AO7" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>8.5</v>
+      </c>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="27">
+        <f>Таблица202035[[#This Row],[Фактический]] - Таблица202035[[#This Row],[Планируемый]]</f>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="57" t="str">
+        <f>IF(Таблица202035[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+      <c r="AX7" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY7" s="58">
+        <v>20</v>
+      </c>
+      <c r="AZ7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>20</v>
+      </c>
+      <c r="BB7" s="26"/>
+      <c r="BC7" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD7" s="26">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="26">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="27">
+        <f>Таблица2020358[[#This Row],[Фактический]] - Таблица2020358[[#This Row],[Планируемый]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="57" t="str">
+        <f>IF(Таблица2020358[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="60" t="s">
         <v>1</v>
       </c>
@@ -6065,7 +7539,7 @@
         <f>IF(Таблица20[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-      <c r="N8" s="87" t="s">
+      <c r="N8" s="86" t="s">
         <v>1</v>
       </c>
       <c r="O8" s="58">
@@ -6086,17 +7560,17 @@
         <v>0</v>
       </c>
       <c r="U8" s="69">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V8" s="70">
         <f>Таблица2020[[#This Row],[Фактический]] - Таблица2020[[#This Row],[Планируемый]]</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W8" s="57" t="str">
         <f>IF(Таблица2020[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-      <c r="Z8" s="83" t="s">
+      <c r="Z8" s="86" t="s">
         <v>1</v>
       </c>
       <c r="AA8" s="58">
@@ -6114,21 +7588,83 @@
         <v>60</v>
       </c>
       <c r="AF8" s="69">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG8" s="69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH8" s="70">
         <f>Таблица20203[[#This Row],[Фактический]] - Таблица20203[[#This Row],[Планируемый]]</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AI8" s="57" t="str">
         <f>IF(Таблица20203[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Нет=(</v>
+      </c>
+      <c r="AL8" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="58">
+        <v>11</v>
+      </c>
+      <c r="AN8" s="58">
+        <v>10.11</v>
+      </c>
+      <c r="AO8" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>0.89000000000000057</v>
+      </c>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR8" s="69">
+        <v>40</v>
+      </c>
+      <c r="AS8" s="69">
+        <v>40</v>
+      </c>
+      <c r="AT8" s="70">
+        <f>Таблица202035[[#This Row],[Фактический]] - Таблица202035[[#This Row],[Планируемый]]</f>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="57" t="str">
+        <f>IF(Таблица202035[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-    </row>
-    <row r="9" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AX8" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="58">
+        <v>11</v>
+      </c>
+      <c r="AZ8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>11</v>
+      </c>
+      <c r="BB8" s="26"/>
+      <c r="BC8" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD8" s="69">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="69">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="70">
+        <f>Таблица2020358[[#This Row],[Фактический]] - Таблица2020358[[#This Row],[Планируемый]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="57" t="str">
+        <f>IF(Таблица2020358[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="60" t="s">
         <v>39</v>
       </c>
@@ -6160,7 +7696,7 @@
         <f>IF(Таблица20[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-      <c r="N9" s="87" t="s">
+      <c r="N9" s="86" t="s">
         <v>39</v>
       </c>
       <c r="O9" s="58">
@@ -6191,7 +7727,7 @@
         <f>IF(Таблица2020[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-      <c r="Z9" s="83" t="s">
+      <c r="Z9" s="86" t="s">
         <v>39</v>
       </c>
       <c r="AA9" s="58">
@@ -6209,10 +7745,10 @@
         <v>61</v>
       </c>
       <c r="AF9" s="69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG9" s="69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH9" s="70">
         <f>Таблица20203[[#This Row],[Фактический]] - Таблица20203[[#This Row],[Планируемый]]</f>
@@ -6222,8 +7758,70 @@
         <f>IF(Таблица20203[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-    </row>
-    <row r="10" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL9" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM9" s="58">
+        <v>15</v>
+      </c>
+      <c r="AN9" s="58">
+        <v>15</v>
+      </c>
+      <c r="AO9" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR9" s="69">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="69">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="70">
+        <f>Таблица202035[[#This Row],[Фактический]] - Таблица202035[[#This Row],[Планируемый]]</f>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="57" t="str">
+        <f>IF(Таблица202035[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+      <c r="AX9" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY9" s="58">
+        <v>15</v>
+      </c>
+      <c r="AZ9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>15</v>
+      </c>
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD9" s="69">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="69">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="70">
+        <f>Таблица2020358[[#This Row],[Фактический]] - Таблица2020358[[#This Row],[Планируемый]]</f>
+        <v>0</v>
+      </c>
+      <c r="BG9" s="57" t="str">
+        <f>IF(Таблица2020358[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="60" t="s">
         <v>40</v>
       </c>
@@ -6256,7 +7854,7 @@
         <f>IF(Таблица20[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-      <c r="N10" s="87" t="s">
+      <c r="N10" s="86" t="s">
         <v>40</v>
       </c>
       <c r="O10" s="58">
@@ -6287,28 +7885,28 @@
         <f>IF(Таблица2020[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-      <c r="Z10" s="83" t="s">
+      <c r="Z10" s="86" t="s">
         <v>40</v>
       </c>
       <c r="AA10" s="58">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB10" s="58">
-        <v>150</v>
+        <v>137.44999999999999</v>
       </c>
       <c r="AC10" s="58">
         <f>Таблица24272[[#This Row],[Планируемые]]-Таблица24272[[#This Row],[Фактические]]</f>
-        <v>0</v>
+        <v>2.5500000000000114</v>
       </c>
       <c r="AD10" s="26"/>
       <c r="AE10" s="58" t="s">
         <v>2</v>
       </c>
       <c r="AF10" s="26">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG10" s="26">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AH10" s="27">
         <f>Таблица20203[[#This Row],[Фактический]] - Таблица20203[[#This Row],[Планируемый]]</f>
@@ -6318,8 +7916,70 @@
         <f>IF(Таблица20203[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-    </row>
-    <row r="11" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL10" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM10" s="58">
+        <v>140</v>
+      </c>
+      <c r="AN10" s="58">
+        <v>132</v>
+      </c>
+      <c r="AO10" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>8</v>
+      </c>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="26">
+        <v>165</v>
+      </c>
+      <c r="AS10" s="26">
+        <v>172</v>
+      </c>
+      <c r="AT10" s="27">
+        <f>Таблица202035[[#This Row],[Фактический]] - Таблица202035[[#This Row],[Планируемый]]</f>
+        <v>7</v>
+      </c>
+      <c r="AU10" s="57" t="str">
+        <f>IF(Таблица202035[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+      <c r="AX10" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY10" s="58">
+        <v>30</v>
+      </c>
+      <c r="AZ10" s="58">
+        <v>1.92</v>
+      </c>
+      <c r="BA10" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>28.08</v>
+      </c>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD10" s="26">
+        <v>40</v>
+      </c>
+      <c r="BE10" s="26">
+        <v>172</v>
+      </c>
+      <c r="BF10" s="27">
+        <f>Таблица2020358[[#This Row],[Фактический]] - Таблица2020358[[#This Row],[Планируемый]]</f>
+        <v>132</v>
+      </c>
+      <c r="BG10" s="57" t="str">
+        <f>IF(Таблица2020358[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="60" t="s">
         <v>49</v>
       </c>
@@ -6353,18 +8013,18 @@
         <f>IF(Таблица20[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-      <c r="N11" s="87" t="s">
+      <c r="N11" s="86" t="s">
         <v>49</v>
       </c>
       <c r="O11" s="58">
         <v>18</v>
       </c>
       <c r="P11" s="58">
-        <v>18</v>
+        <v>20.3</v>
       </c>
       <c r="Q11" s="58">
         <f>Таблица2427[[#This Row],[Планируемые]]-Таблица2427[[#This Row],[Фактические]]</f>
-        <v>0</v>
+        <v>-2.3000000000000007</v>
       </c>
       <c r="R11" s="26"/>
       <c r="S11" s="68" t="s">
@@ -6376,17 +8036,17 @@
       </c>
       <c r="U11" s="69">
         <f>SUM(U5:U10)</f>
-        <v>727</v>
+        <v>779</v>
       </c>
       <c r="V11" s="70">
         <f>SUM(V5:V10)</f>
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="W11" s="57" t="str">
         <f>IF(Таблица2020[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Есть!</v>
       </c>
-      <c r="Z11" s="83" t="s">
+      <c r="Z11" s="86" t="s">
         <v>49</v>
       </c>
       <c r="AA11" s="58">
@@ -6405,22 +8065,84 @@
       </c>
       <c r="AF11" s="69">
         <f>SUM(AF5:AF10)</f>
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AG11" s="69">
         <f>SUM(AG5:AG10)</f>
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="AH11" s="70">
         <f>SUM(AH5:AH10)</f>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="57" t="str">
         <f>IF(Таблица20203[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR11" s="69">
+        <f>SUM(AR5:AR10)</f>
+        <v>545</v>
+      </c>
+      <c r="AS11" s="69">
+        <f>SUM(AS5:AS10)</f>
+        <v>567.24</v>
+      </c>
+      <c r="AT11" s="70">
+        <f>SUM(AT5:AT10)</f>
+        <v>22.240000000000009</v>
+      </c>
+      <c r="AU11" s="57" t="str">
+        <f>IF(Таблица202035[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
+        <v>Есть!</v>
+      </c>
+      <c r="AX11" s="86"/>
+      <c r="AY11" s="58">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="26"/>
+      <c r="BC11" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD11" s="69">
+        <f>SUM(BD5:BD10)</f>
+        <v>490</v>
+      </c>
+      <c r="BE11" s="69">
+        <f>SUM(BE5:BE10)</f>
+        <v>172</v>
+      </c>
+      <c r="BF11" s="70">
+        <f>SUM(BF5:BF10)</f>
+        <v>-318</v>
+      </c>
+      <c r="BG11" s="57" t="str">
+        <f>IF(Таблица2020358[[#This Row],[Разница]]&gt;=0, "Есть!","Нет=(")</f>
         <v>Нет=(</v>
       </c>
     </row>
-    <row r="12" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="60" t="s">
         <v>41</v>
       </c>
@@ -6439,7 +8161,7 @@
       <c r="H12" s="58"/>
       <c r="I12" s="26"/>
       <c r="J12" s="27"/>
-      <c r="N12" s="87" t="s">
+      <c r="N12" s="86" t="s">
         <v>41</v>
       </c>
       <c r="O12" s="58">
@@ -6457,27 +8179,63 @@
       <c r="T12" s="58"/>
       <c r="U12" s="26"/>
       <c r="V12" s="27"/>
-      <c r="Z12" s="83" t="s">
+      <c r="Z12" s="86" t="s">
         <v>41</v>
       </c>
       <c r="AA12" s="58">
         <v>0</v>
       </c>
       <c r="AB12" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC12" s="58">
         <f>Таблица24272[[#This Row],[Планируемые]]-Таблица24272[[#This Row],[Фактические]]</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AD12" s="26"/>
       <c r="AE12" s="58"/>
       <c r="AF12" s="58"/>
       <c r="AG12" s="26"/>
       <c r="AH12" s="27"/>
-    </row>
-    <row r="13" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="86" t="s">
+      <c r="AL12" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM12" s="58">
+        <v>15</v>
+      </c>
+      <c r="AN12" s="58">
+        <v>15</v>
+      </c>
+      <c r="AO12" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="27"/>
+      <c r="AX12" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY12" s="58">
+        <v>27</v>
+      </c>
+      <c r="AZ12" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>27</v>
+      </c>
+      <c r="BB12" s="26"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="58"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="27"/>
+    </row>
+    <row r="13" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="85" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="58">
@@ -6495,7 +8253,7 @@
       <c r="H13" s="58"/>
       <c r="I13" s="58"/>
       <c r="J13" s="27"/>
-      <c r="N13" s="87" t="s">
+      <c r="N13" s="86" t="s">
         <v>42</v>
       </c>
       <c r="O13" s="58">
@@ -6517,7 +8275,7 @@
       </c>
       <c r="U13" s="58"/>
       <c r="V13" s="27"/>
-      <c r="Z13" s="83" t="s">
+      <c r="Z13" s="86" t="s">
         <v>42</v>
       </c>
       <c r="AA13" s="58">
@@ -6537,8 +8295,44 @@
       <c r="AF13" s="58"/>
       <c r="AG13" s="58"/>
       <c r="AH13" s="27"/>
-    </row>
-    <row r="14" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="27"/>
+      <c r="AX13" s="86"/>
+      <c r="AY13" s="58">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="26"/>
+      <c r="BC13" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD13" s="58"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="27"/>
+    </row>
+    <row r="14" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="60" t="s">
         <v>45</v>
       </c>
@@ -6557,18 +8351,18 @@
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
       <c r="J14" s="27"/>
-      <c r="N14" s="83" t="s">
+      <c r="N14" s="86" t="s">
         <v>45</v>
       </c>
       <c r="O14" s="58">
         <v>20</v>
       </c>
       <c r="P14" s="58">
-        <v>13.9</v>
+        <v>15.1</v>
       </c>
       <c r="Q14" s="58">
         <f>Таблица2427[[#This Row],[Планируемые]]-Таблица2427[[#This Row],[Фактические]]</f>
-        <v>6.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
@@ -6582,19 +8376,55 @@
         <v>20</v>
       </c>
       <c r="AB14" s="58">
-        <v>20</v>
+        <v>16.45</v>
       </c>
       <c r="AC14" s="58">
         <f>Таблица24272[[#This Row],[Планируемые]]-Таблица24272[[#This Row],[Фактические]]</f>
-        <v>0</v>
+        <v>3.5500000000000007</v>
       </c>
       <c r="AD14" s="26"/>
       <c r="AE14" s="26"/>
       <c r="AF14" s="58"/>
       <c r="AG14" s="58"/>
       <c r="AH14" s="27"/>
-    </row>
-    <row r="15" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL14" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM14" s="58">
+        <v>12</v>
+      </c>
+      <c r="AN14" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>12</v>
+      </c>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="27"/>
+      <c r="AX14" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY14" s="58">
+        <v>12</v>
+      </c>
+      <c r="AZ14" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>12</v>
+      </c>
+      <c r="BB14" s="26"/>
+      <c r="BC14" s="26"/>
+      <c r="BD14" s="58"/>
+      <c r="BE14" s="58"/>
+      <c r="BF14" s="27"/>
+    </row>
+    <row r="15" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="63"/>
       <c r="C15" s="64" t="s">
         <v>44</v>
@@ -6616,7 +8446,7 @@
       </c>
       <c r="P15" s="64">
         <f>SUM(P6:P14)</f>
-        <v>281.65999999999997</v>
+        <v>285.16000000000003</v>
       </c>
       <c r="Q15" s="64"/>
       <c r="R15" s="26"/>
@@ -6634,7 +8464,7 @@
       </c>
       <c r="AB15" s="64">
         <f>SUM(AB6:AB14)</f>
-        <v>269</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="AC15" s="64"/>
       <c r="AD15" s="26"/>
@@ -6646,8 +8476,44 @@
       </c>
       <c r="AG15" s="58"/>
       <c r="AH15" s="27"/>
-    </row>
-    <row r="16" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN15" s="64">
+        <f>SUM(AN6:AN14)</f>
+        <v>208.61</v>
+      </c>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR15" s="58">
+        <v>31</v>
+      </c>
+      <c r="AS15" s="58"/>
+      <c r="AT15" s="27"/>
+      <c r="AX15" s="64"/>
+      <c r="AY15" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ15" s="64">
+        <f>SUM(AZ6:AZ14)</f>
+        <v>1.92</v>
+      </c>
+      <c r="BA15" s="64"/>
+      <c r="BB15" s="26"/>
+      <c r="BC15" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD15" s="58">
+        <v>30</v>
+      </c>
+      <c r="BE15" s="58"/>
+      <c r="BF15" s="27"/>
+    </row>
+    <row r="16" spans="2:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="59" t="s">
         <v>50</v>
       </c>
@@ -6674,7 +8540,7 @@
         <v>может хватит</v>
       </c>
       <c r="J16" s="27"/>
-      <c r="N16" s="88" t="s">
+      <c r="N16" s="87" t="s">
         <v>79</v>
       </c>
       <c r="O16" s="43">
@@ -6700,14 +8566,14 @@
         <v>может хватит</v>
       </c>
       <c r="V16" s="27"/>
-      <c r="Z16" s="88" t="s">
-        <v>82</v>
+      <c r="Z16" s="87" t="s">
+        <v>81</v>
       </c>
       <c r="AA16" s="43">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB16" s="43">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AC16" s="58">
         <f>Таблица24272[[#This Row],[Планируемые]]-Таблица24272[[#This Row],[Фактические]]</f>
@@ -6719,16 +8585,68 @@
       </c>
       <c r="AF16" s="58">
         <f>AF11-AA24</f>
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="AG16" s="58" t="str">
         <f>IF(AF16&gt;200, "может хватит", "Голодать будете")</f>
+        <v>может хватит</v>
+      </c>
+      <c r="AH16" s="27"/>
+      <c r="AL16" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM16" s="43">
+        <v>10</v>
+      </c>
+      <c r="AN16" s="43">
+        <v>10</v>
+      </c>
+      <c r="AO16" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR16" s="58">
+        <f>AR11-AM24</f>
+        <v>167.5</v>
+      </c>
+      <c r="AS16" s="58" t="str">
+        <f>IF(AR16&gt;200, "может хватит", "Голодать будете")</f>
         <v>Голодать будете</v>
       </c>
-      <c r="AH16" s="27"/>
-    </row>
-    <row r="17" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="86" t="s">
+      <c r="AT16" s="27"/>
+      <c r="AX16" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY16" s="43">
+        <v>15</v>
+      </c>
+      <c r="AZ16" s="43">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>15</v>
+      </c>
+      <c r="BB16" s="26"/>
+      <c r="BC16" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD16" s="58">
+        <f>BD11-AY24</f>
+        <v>203</v>
+      </c>
+      <c r="BE16" s="58" t="str">
+        <f>IF(BD16&gt;200, "может хватит", "Голодать будете")</f>
+        <v>может хватит</v>
+      </c>
+      <c r="BF16" s="27"/>
+    </row>
+    <row r="17" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="58">
@@ -6754,7 +8672,7 @@
         <v>8.7064516129032246</v>
       </c>
       <c r="J17" s="27"/>
-      <c r="N17" s="83" t="s">
+      <c r="N17" s="86" t="s">
         <v>51</v>
       </c>
       <c r="O17" s="58">
@@ -6777,17 +8695,17 @@
       </c>
       <c r="U17" s="73">
         <f>(U11-P25)/T15</f>
-        <v>9.95290322580645</v>
+        <v>11.517419354838706</v>
       </c>
       <c r="V17" s="27"/>
-      <c r="Z17" s="87" t="s">
+      <c r="Z17" s="86" t="s">
         <v>53</v>
       </c>
       <c r="AA17" s="58">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="58">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="AC17" s="58">
         <f>Таблица24272[[#This Row],[Планируемые]]-Таблица24272[[#This Row],[Фактические]]</f>
@@ -6799,16 +8717,68 @@
       </c>
       <c r="AF17" s="73">
         <f>(AF16)/AF15</f>
-        <v>3.2</v>
+        <v>8.3666666666666671</v>
       </c>
       <c r="AG17" s="73">
         <f>(AG11-AB24)/AF15</f>
-        <v>-13.466666666666667</v>
+        <v>8.4966666666666679</v>
       </c>
       <c r="AH17" s="27"/>
-    </row>
-    <row r="18" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="92" t="s">
+      <c r="AL17" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM17" s="58">
+        <v>20</v>
+      </c>
+      <c r="AN17" s="58">
+        <v>14.8</v>
+      </c>
+      <c r="AO17" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR17" s="73">
+        <f>(AR16)/AR15</f>
+        <v>5.403225806451613</v>
+      </c>
+      <c r="AS17" s="73">
+        <f>(AS11-AN24)/AR15</f>
+        <v>8.1396774193548378</v>
+      </c>
+      <c r="AT17" s="27"/>
+      <c r="AX17" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY17" s="58">
+        <v>10</v>
+      </c>
+      <c r="AZ17" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>10</v>
+      </c>
+      <c r="BB17" s="26"/>
+      <c r="BC17" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD17" s="73">
+        <f>(BD16)/BD15</f>
+        <v>6.7666666666666666</v>
+      </c>
+      <c r="BE17" s="73">
+        <f>(BE11-AZ24)/BD15</f>
+        <v>5.6693333333333333</v>
+      </c>
+      <c r="BF17" s="27"/>
+    </row>
+    <row r="18" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="91" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="58">
@@ -6826,7 +8796,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
-      <c r="N18" s="87" t="s">
+      <c r="N18" s="86" t="s">
         <v>62</v>
       </c>
       <c r="O18" s="58">
@@ -6844,14 +8814,14 @@
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
       <c r="V18" s="27"/>
-      <c r="Z18" s="87" t="s">
-        <v>64</v>
+      <c r="Z18" s="86" t="s">
+        <v>82</v>
       </c>
       <c r="AA18" s="58">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AB18" s="58">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AC18" s="58">
         <f>Таблица24272[[#This Row],[Планируемые]]-Таблица24272[[#This Row],[Фактические]]</f>
@@ -6862,8 +8832,44 @@
       <c r="AF18" s="26"/>
       <c r="AG18" s="26"/>
       <c r="AH18" s="27"/>
-    </row>
-    <row r="19" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL18" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM18" s="58">
+        <v>20</v>
+      </c>
+      <c r="AN18" s="58">
+        <v>20</v>
+      </c>
+      <c r="AO18" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="27"/>
+      <c r="AX18" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY18" s="58">
+        <v>27</v>
+      </c>
+      <c r="AZ18" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>27</v>
+      </c>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="26"/>
+      <c r="BD18" s="26"/>
+      <c r="BE18" s="26"/>
+      <c r="BF18" s="27"/>
+    </row>
+    <row r="19" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="60" t="s">
         <v>53</v>
       </c>
@@ -6882,7 +8888,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
       <c r="J19" s="27"/>
-      <c r="N19" s="87" t="s">
+      <c r="N19" s="86" t="s">
         <v>53</v>
       </c>
       <c r="O19" s="58">
@@ -6901,25 +8907,61 @@
       <c r="U19" s="26"/>
       <c r="V19" s="27"/>
       <c r="Z19" s="94" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA19" s="82">
         <v>10</v>
       </c>
       <c r="AB19" s="82">
-        <v>10</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC19" s="58">
         <f>Таблица24272[[#This Row],[Планируемые]]-Таблица24272[[#This Row],[Фактические]]</f>
-        <v>0</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
       <c r="AF19" s="26"/>
       <c r="AG19" s="26"/>
       <c r="AH19" s="27"/>
-    </row>
-    <row r="20" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL19" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM19" s="82">
+        <v>37.5</v>
+      </c>
+      <c r="AN19" s="82">
+        <v>37.5</v>
+      </c>
+      <c r="AO19" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="27"/>
+      <c r="AX19" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY19" s="82">
+        <v>20</v>
+      </c>
+      <c r="AZ19" s="82">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>20</v>
+      </c>
+      <c r="BB19" s="26"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="26"/>
+      <c r="BE19" s="26"/>
+      <c r="BF19" s="27"/>
+    </row>
+    <row r="20" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="60" t="s">
         <v>70</v>
       </c>
@@ -6946,7 +8988,7 @@
         <v>Превысили!</v>
       </c>
       <c r="J20" s="27"/>
-      <c r="N20" s="87" t="s">
+      <c r="N20" s="86" t="s">
         <v>63</v>
       </c>
       <c r="O20" s="58">
@@ -6965,25 +9007,25 @@
       </c>
       <c r="T20" s="26">
         <f>Q25</f>
-        <v>41.54</v>
+        <v>38.04</v>
       </c>
       <c r="U20" s="26" t="str">
         <f>IF(T20&gt;0, "хорошо=)","Превысили!")</f>
         <v>хорошо=)</v>
       </c>
       <c r="V20" s="27"/>
-      <c r="Z20" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA20" s="58">
-        <v>30</v>
-      </c>
-      <c r="AB20" s="58">
-        <v>30</v>
+      <c r="Z20" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA20" s="82">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="82">
+        <v>8</v>
       </c>
       <c r="AC20" s="58">
         <f>Таблица24272[[#This Row],[Планируемые]]-Таблица24272[[#This Row],[Фактические]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="26"/>
       <c r="AE20" s="71" t="s">
@@ -6991,15 +9033,67 @@
       </c>
       <c r="AF20" s="26">
         <f>AC24</f>
-        <v>0</v>
+        <v>3.9000000000000128</v>
       </c>
       <c r="AG20" s="26" t="str">
         <f>IF(AF20&gt;0, "хорошо=)","Превысили!")</f>
-        <v>Превысили!</v>
+        <v>хорошо=)</v>
       </c>
       <c r="AH20" s="27"/>
-    </row>
-    <row r="21" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL20" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM20" s="82">
+        <v>30</v>
+      </c>
+      <c r="AN20" s="82">
+        <v>24</v>
+      </c>
+      <c r="AO20" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>6</v>
+      </c>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR20" s="26">
+        <f>AO24</f>
+        <v>45.59</v>
+      </c>
+      <c r="AS20" s="26" t="str">
+        <f>IF(AR20&gt;0, "хорошо=)","Превысили!")</f>
+        <v>хорошо=)</v>
+      </c>
+      <c r="AT20" s="27"/>
+      <c r="AX20" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY20" s="82">
+        <v>40</v>
+      </c>
+      <c r="AZ20" s="82">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>40</v>
+      </c>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD20" s="26">
+        <f>BA24</f>
+        <v>285.08</v>
+      </c>
+      <c r="BE20" s="26" t="str">
+        <f>IF(BD20&gt;0, "хорошо=)","Превысили!")</f>
+        <v>хорошо=)</v>
+      </c>
+      <c r="BF20" s="27"/>
+    </row>
+    <row r="21" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="60" t="s">
         <v>71</v>
       </c>
@@ -7026,7 +9120,7 @@
         <v>хорошо=)</v>
       </c>
       <c r="J21" s="27"/>
-      <c r="N21" s="87" t="s">
+      <c r="N21" s="86" t="s">
         <v>64</v>
       </c>
       <c r="O21" s="58">
@@ -7045,32 +9139,85 @@
       </c>
       <c r="T21" s="26">
         <f>V11</f>
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="U21" s="26" t="str">
         <f>IF(T21&gt;0, "хорошо=)","Превысили!")</f>
         <v>хорошо=)</v>
       </c>
       <c r="V21" s="27"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="96"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="95">
+        <v>0</v>
+      </c>
       <c r="AD21" s="26"/>
       <c r="AE21" s="71" t="s">
         <v>56</v>
       </c>
       <c r="AF21" s="26">
         <f>AH11</f>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="26" t="str">
         <f>IF(AF21&gt;0, "хорошо=)","Превысили!")</f>
         <v>Превысили!</v>
       </c>
       <c r="AH21" s="27"/>
-    </row>
-    <row r="22" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL21" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM21" s="82">
+        <v>17</v>
+      </c>
+      <c r="AN21" s="82">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="95">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR21" s="26">
+        <f>AT11</f>
+        <v>22.240000000000009</v>
+      </c>
+      <c r="AS21" s="26" t="str">
+        <f>IF(AR21&gt;0, "хорошо=)","Превысили!")</f>
+        <v>хорошо=)</v>
+      </c>
+      <c r="AT21" s="27"/>
+      <c r="AX21" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY21" s="82">
+        <v>20</v>
+      </c>
+      <c r="AZ21" s="82">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>20</v>
+      </c>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD21" s="26">
+        <f>BF11</f>
+        <v>-318</v>
+      </c>
+      <c r="BE21" s="26" t="str">
+        <f>IF(BD21&gt;0, "хорошо=)","Превысили!")</f>
+        <v>Превысили!</v>
+      </c>
+      <c r="BF21" s="27"/>
+    </row>
+    <row r="22" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="60" t="s">
         <v>73</v>
       </c>
@@ -7097,7 +9244,7 @@
         <v>В копилочку!</v>
       </c>
       <c r="J22" s="27"/>
-      <c r="N22" s="87" t="s">
+      <c r="N22" s="86" t="s">
         <v>65</v>
       </c>
       <c r="O22" s="58">
@@ -7116,14 +9263,14 @@
       </c>
       <c r="T22" s="74">
         <f>T20+T21</f>
-        <v>68.539999999999992</v>
+        <v>117.03999999999999</v>
       </c>
       <c r="U22" s="26" t="str">
         <f>IF(T22 &gt; 0,"В копилочку!", "Живёте в долг=(")</f>
         <v>В копилочку!</v>
       </c>
       <c r="V22" s="27"/>
-      <c r="Z22" s="87"/>
+      <c r="Z22" s="86"/>
       <c r="AA22" s="58">
         <v>0</v>
       </c>
@@ -7140,22 +9287,70 @@
       </c>
       <c r="AF22" s="74">
         <f>AF20+AF21</f>
-        <v>-500</v>
+        <v>3.9000000000000128</v>
       </c>
       <c r="AG22" s="26" t="str">
         <f>IF(AF22 &gt; 0,"В копилочку!", "Живёте в долг=(")</f>
+        <v>В копилочку!</v>
+      </c>
+      <c r="AH22" s="27"/>
+      <c r="AL22" s="86"/>
+      <c r="AM22" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR22" s="74">
+        <f>AR20+AR21</f>
+        <v>67.830000000000013</v>
+      </c>
+      <c r="AS22" s="26" t="str">
+        <f>IF(AR22 &gt; 0,"В копилочку!", "Живёте в долг=(")</f>
+        <v>В копилочку!</v>
+      </c>
+      <c r="AT22" s="27"/>
+      <c r="AX22" s="86"/>
+      <c r="AY22" s="58">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD22" s="74">
+        <f>BD20+BD21</f>
+        <v>-32.920000000000016</v>
+      </c>
+      <c r="BE22" s="26" t="str">
+        <f>IF(BD22 &gt; 0,"В копилочку!", "Живёте в долг=(")</f>
         <v>Живёте в долг=(</v>
       </c>
-      <c r="AH22" s="27"/>
-    </row>
-    <row r="23" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BF22" s="27"/>
+    </row>
+    <row r="23" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="61" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="62">
         <v>0</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="84">
         <v>9.3000000000000007</v>
       </c>
       <c r="E23" s="58">
@@ -7167,7 +9362,7 @@
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="27"/>
-      <c r="N23" s="84" t="s">
+      <c r="N23" s="93" t="s">
         <v>66</v>
       </c>
       <c r="O23" s="62">
@@ -7185,7 +9380,7 @@
       <c r="T23" s="26"/>
       <c r="U23" s="26"/>
       <c r="V23" s="27"/>
-      <c r="Z23" s="84"/>
+      <c r="Z23" s="93"/>
       <c r="AA23" s="62">
         <v>0</v>
       </c>
@@ -7201,8 +9396,40 @@
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
       <c r="AH23" s="27"/>
-    </row>
-    <row r="24" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL23" s="93"/>
+      <c r="AM23" s="62">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="62">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="58">
+        <f>Таблица242724[[#This Row],[Планируемые]]-Таблица242724[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="27"/>
+      <c r="AX23" s="93"/>
+      <c r="AY23" s="62">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="62">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="58">
+        <f>Таблица2427247[[#This Row],[Планируемые]]-Таблица2427247[[#This Row],[Фактические]]</f>
+        <v>0</v>
+      </c>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="26"/>
+      <c r="BD23" s="26"/>
+      <c r="BE23" s="26"/>
+      <c r="BF23" s="27"/>
+    </row>
+    <row r="24" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="61" t="s">
         <v>46</v>
       </c>
@@ -7227,7 +9454,7 @@
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="31"/>
-      <c r="N24" s="91" t="s">
+      <c r="N24" s="90" t="s">
         <v>72</v>
       </c>
       <c r="O24" s="82">
@@ -7250,23 +9477,63 @@
       </c>
       <c r="AA24" s="58">
         <f>SUM(AA16:AA23,AA6:AA14)</f>
-        <v>404</v>
+        <v>329</v>
       </c>
       <c r="AB24" s="58">
         <f>SUM(AB16:AB23,AB6:AB14)</f>
-        <v>404</v>
+        <v>325.09999999999997</v>
       </c>
       <c r="AC24" s="76">
         <f>SUM(AC16:AC23,AC6:AC14)</f>
-        <v>0</v>
+        <v>3.9000000000000128</v>
       </c>
       <c r="AD24" s="30"/>
       <c r="AE24" s="30"/>
       <c r="AF24" s="30"/>
       <c r="AG24" s="30"/>
       <c r="AH24" s="31"/>
-    </row>
-    <row r="25" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL24" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM24" s="58">
+        <f>SUM(AM16:AM23,AM6:AM14)</f>
+        <v>377.5</v>
+      </c>
+      <c r="AN24" s="58">
+        <f>SUM(AN16:AN23,AN6:AN14)</f>
+        <v>314.91000000000003</v>
+      </c>
+      <c r="AO24" s="76">
+        <f>SUM(AO16:AO23,AO6:AO14)</f>
+        <v>45.59</v>
+      </c>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="30"/>
+      <c r="AT24" s="31"/>
+      <c r="AX24" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY24" s="58">
+        <f>SUM(AY16:AY23,AY6:AY14)</f>
+        <v>287</v>
+      </c>
+      <c r="AZ24" s="58">
+        <f>SUM(AZ16:AZ23,AZ6:AZ14)</f>
+        <v>1.92</v>
+      </c>
+      <c r="BA24" s="76">
+        <f>SUM(BA16:BA23,BA6:BA14)</f>
+        <v>285.08</v>
+      </c>
+      <c r="BB24" s="30"/>
+      <c r="BC24" s="30"/>
+      <c r="BD24" s="30"/>
+      <c r="BE24" s="30"/>
+      <c r="BF24" s="31"/>
+    </row>
+    <row r="25" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -7284,11 +9551,11 @@
       </c>
       <c r="P25" s="58">
         <f>SUM(P16:P24,P6:P14)</f>
-        <v>418.46000000000004</v>
+        <v>421.96000000000009</v>
       </c>
       <c r="Q25" s="76">
         <f>SUM(Q16:Q24,Q6:Q14)</f>
-        <v>41.54</v>
+        <v>38.04</v>
       </c>
       <c r="R25" s="26"/>
       <c r="S25" s="44"/>
@@ -7303,7 +9570,7 @@
       <c r="AH25" s="44"/>
       <c r="AI25" s="26"/>
     </row>
-    <row r="26" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
       <c r="D26" s="58"/>
@@ -7327,7 +9594,7 @@
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
     </row>
-    <row r="27" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -7351,7 +9618,7 @@
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
     </row>
-    <row r="28" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
@@ -7375,7 +9642,7 @@
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
     </row>
-    <row r="29" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -7399,7 +9666,7 @@
       <c r="V29" s="69"/>
       <c r="W29" s="26"/>
     </row>
-    <row r="30" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="58"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
@@ -7423,7 +9690,7 @@
       <c r="V30" s="69"/>
       <c r="W30" s="26"/>
     </row>
-    <row r="31" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="58"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -7447,7 +9714,7 @@
       <c r="V31" s="26"/>
       <c r="W31" s="26"/>
     </row>
-    <row r="32" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="58"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
@@ -8851,6 +11118,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H17:I17">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{763B759F-1577-49A2-85E0-79D872D4A6E2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:I38">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{409E4199-C0E5-4059-B1C3-CF8E405A2071}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T36:U36">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ECFD4B23-1464-4FD9-8188-A08D6CFC517A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:I62">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
@@ -8859,7 +11198,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{763B759F-1577-49A2-85E0-79D872D4A6E2}</x14:id>
+          <x14:id>{2C8A2F3D-1648-4117-974E-1D6ECD631C16}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8874,7 +11213,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:I38">
+  <conditionalFormatting sqref="T60:U60">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1529B271-269C-42B9-884C-CF597389AC80}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86:I86">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -8883,7 +11246,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{409E4199-C0E5-4059-B1C3-CF8E405A2071}</x14:id>
+          <x14:id>{89856A5E-3D3D-4FF5-8AEC-51D36B5DC9F5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8898,7 +11261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T36:U36">
+  <conditionalFormatting sqref="T84:U84">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -8907,7 +11270,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ECFD4B23-1464-4FD9-8188-A08D6CFC517A}</x14:id>
+          <x14:id>{0301EA31-C3E7-4801-9CC1-B2642275D53D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8922,55 +11285,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62:I62">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2C8A2F3D-1648-4117-974E-1D6ECD631C16}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T60:U60">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1529B271-269C-42B9-884C-CF597389AC80}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86:I86">
+  <conditionalFormatting sqref="U17">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
@@ -8979,7 +11294,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{89856A5E-3D3D-4FF5-8AEC-51D36B5DC9F5}</x14:id>
+          <x14:id>{28C052F6-5054-421C-A397-919B77EE1FE5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8994,7 +11309,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T84:U84">
+  <conditionalFormatting sqref="T17">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -9003,7 +11318,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0301EA31-C3E7-4801-9CC1-B2642275D53D}</x14:id>
+          <x14:id>{5ADEA16F-BB6E-49EA-B9A4-D136304DD109}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9018,7 +11333,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U17">
+  <conditionalFormatting sqref="AG17">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E0B9D81A-EEE1-4A7F-A1E5-6E69E3C6B9FD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF17">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B9F20976-74D5-4ED4-A8DB-38E8A51922F9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS17">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -9027,7 +11390,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28C052F6-5054-421C-A397-919B77EE1FE5}</x14:id>
+          <x14:id>{69A44D63-07AE-4B36-81F0-D3D82A8A91EA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9042,7 +11405,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17">
+  <conditionalFormatting sqref="AR17">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -9051,7 +11414,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5ADEA16F-BB6E-49EA-B9A4-D136304DD109}</x14:id>
+          <x14:id>{97636C3F-A5C0-4DB8-8398-8B33C868824B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9066,7 +11429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG17">
+  <conditionalFormatting sqref="BE17">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -9075,7 +11438,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E0B9D81A-EEE1-4A7F-A1E5-6E69E3C6B9FD}</x14:id>
+          <x14:id>{C94EF464-FF0A-42B5-997E-D6100FD1D1D3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9090,7 +11453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17">
+  <conditionalFormatting sqref="BD17">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -9099,7 +11462,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B9F20976-74D5-4ED4-A8DB-38E8A51922F9}</x14:id>
+          <x14:id>{25AA9D98-A023-4DEE-9759-981D542749C1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9120,13 +11483,17 @@
     <ignoredError sqref="J11" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="10">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -9252,6 +11619,50 @@
           </x14:cfRule>
           <xm:sqref>AF17</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{69A44D63-07AE-4B36-81F0-D3D82A8A91EA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AS17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{97636C3F-A5C0-4DB8-8398-8B33C868824B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AR17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C94EF464-FF0A-42B5-997E-D6100FD1D1D3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BE17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{25AA9D98-A023-4DEE-9759-981D542749C1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>BD17</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
